--- a/Code/Results/Cases/Case_0_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1751887872490698</v>
+        <v>0.2323342713546026</v>
       </c>
       <c r="D2">
-        <v>0.1482912739364366</v>
+        <v>0.1936821668427342</v>
       </c>
       <c r="E2">
-        <v>0.0956158495250321</v>
+        <v>0.1637286036555636</v>
       </c>
       <c r="F2">
-        <v>0.6552702938510393</v>
+        <v>1.371863024247688</v>
       </c>
       <c r="G2">
-        <v>0.3874224831231885</v>
+        <v>0.7656368203074919</v>
       </c>
       <c r="H2">
-        <v>0.3191513412955231</v>
+        <v>0.8573159392711887</v>
       </c>
       <c r="I2">
-        <v>0.4496268385497046</v>
+        <v>0.9486264204944845</v>
       </c>
       <c r="J2">
-        <v>0.08704796953325911</v>
+        <v>0.1817389190539274</v>
       </c>
       <c r="K2">
-        <v>2.994882902799532</v>
+        <v>1.239856818260819</v>
       </c>
       <c r="L2">
-        <v>0.106476221758335</v>
+        <v>0.2145138343572981</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.038024991787779</v>
+        <v>1.237564196572151</v>
       </c>
       <c r="O2">
-        <v>1.437957377831395</v>
+        <v>3.257304884545078</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1586642406495429</v>
+        <v>0.2288162730677783</v>
       </c>
       <c r="D3">
-        <v>0.1339172500662613</v>
+        <v>0.1904205364025984</v>
       </c>
       <c r="E3">
-        <v>0.08849234217797175</v>
+        <v>0.1626116673094309</v>
       </c>
       <c r="F3">
-        <v>0.628119308538956</v>
+        <v>1.375586268995065</v>
       </c>
       <c r="G3">
-        <v>0.3709317682496476</v>
+        <v>0.7687157380360929</v>
       </c>
       <c r="H3">
-        <v>0.3173601170688727</v>
+        <v>0.8628302847912366</v>
       </c>
       <c r="I3">
-        <v>0.4317511802681508</v>
+        <v>0.9515894264282423</v>
       </c>
       <c r="J3">
-        <v>0.08257226563635811</v>
+        <v>0.1815991764158227</v>
       </c>
       <c r="K3">
-        <v>2.608148147423236</v>
+        <v>1.119980459949659</v>
       </c>
       <c r="L3">
-        <v>0.1003152416542363</v>
+        <v>0.2139799278543535</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.012333032941712</v>
+        <v>1.232029302888833</v>
       </c>
       <c r="O3">
-        <v>1.398872103310893</v>
+        <v>3.275092097228779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1486338684129151</v>
+        <v>0.2267406629446072</v>
       </c>
       <c r="D4">
-        <v>0.1251701697051146</v>
+        <v>0.1884801879155162</v>
       </c>
       <c r="E4">
-        <v>0.08419997214235053</v>
+        <v>0.1619849363818346</v>
       </c>
       <c r="F4">
-        <v>0.6126245081850286</v>
+        <v>1.378574404789475</v>
       </c>
       <c r="G4">
-        <v>0.361702637779004</v>
+        <v>0.7710850826054596</v>
       </c>
       <c r="H4">
-        <v>0.3168189502116547</v>
+        <v>0.866578389902088</v>
       </c>
       <c r="I4">
-        <v>0.4216094173635696</v>
+        <v>0.9539019835516811</v>
       </c>
       <c r="J4">
-        <v>0.0799253362170198</v>
+        <v>0.1815829987920772</v>
       </c>
       <c r="K4">
-        <v>2.370497019216629</v>
+        <v>1.046306572079743</v>
       </c>
       <c r="L4">
-        <v>0.09663745011328473</v>
+        <v>0.2137279907519272</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9973752729033407</v>
+        <v>1.229038101946102</v>
       </c>
       <c r="O4">
-        <v>1.377933008825394</v>
+        <v>3.287777044213598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1445738295620771</v>
+        <v>0.2259161870615003</v>
       </c>
       <c r="D5">
-        <v>0.1216242532876919</v>
+        <v>0.1877052544943609</v>
       </c>
       <c r="E5">
-        <v>0.08247031086281353</v>
+        <v>0.1617444482589399</v>
       </c>
       <c r="F5">
-        <v>0.6065924233992632</v>
+        <v>1.379968744233828</v>
       </c>
       <c r="G5">
-        <v>0.3581556131711636</v>
+        <v>0.7721709803561723</v>
       </c>
       <c r="H5">
-        <v>0.316733775641012</v>
+        <v>0.8681969366675162</v>
       </c>
       <c r="I5">
-        <v>0.4176766313925526</v>
+        <v>0.9549684688646352</v>
       </c>
       <c r="J5">
-        <v>0.07887104566882641</v>
+        <v>0.1815939521987922</v>
       </c>
       <c r="K5">
-        <v>2.273587492012467</v>
+        <v>1.01626894808922</v>
       </c>
       <c r="L5">
-        <v>0.09516402421726866</v>
+        <v>0.2136444608577079</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9914785090803804</v>
+        <v>1.227922038103159</v>
       </c>
       <c r="O5">
-        <v>1.370134473882317</v>
+        <v>3.293389749473732</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1439012714032515</v>
+        <v>0.2257805764718768</v>
       </c>
       <c r="D6">
-        <v>0.1210365459623972</v>
+        <v>0.1875775332706553</v>
       </c>
       <c r="E6">
-        <v>0.08218425285162212</v>
+        <v>0.1617054175399275</v>
       </c>
       <c r="F6">
-        <v>0.6056074578946493</v>
+        <v>1.380210945809637</v>
       </c>
       <c r="G6">
-        <v>0.3575792274753482</v>
+        <v>0.7723585615662216</v>
       </c>
       <c r="H6">
-        <v>0.3167276620562447</v>
+        <v>0.8684712031382773</v>
       </c>
       <c r="I6">
-        <v>0.4170354047036398</v>
+        <v>0.9551530551692977</v>
       </c>
       <c r="J6">
-        <v>0.07869742170333538</v>
+        <v>0.1815968318573233</v>
       </c>
       <c r="K6">
-        <v>2.257491385879689</v>
+        <v>1.011280396653831</v>
       </c>
       <c r="L6">
-        <v>0.09492085958387975</v>
+        <v>0.2136317481979972</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.990511160815899</v>
+        <v>1.227742943858942</v>
       </c>
       <c r="O6">
-        <v>1.368882889319281</v>
+        <v>3.294348521389097</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1485790044640396</v>
+        <v>0.2267294571676928</v>
       </c>
       <c r="D7">
-        <v>0.1251222744846103</v>
+        <v>0.1884696728800463</v>
       </c>
       <c r="E7">
-        <v>0.08417656757055525</v>
+        <v>0.1619816326315799</v>
       </c>
       <c r="F7">
-        <v>0.612542032347946</v>
+        <v>1.37859249393945</v>
       </c>
       <c r="G7">
-        <v>0.3616539499705951</v>
+        <v>0.7710992400889154</v>
       </c>
       <c r="H7">
-        <v>0.3168172600740249</v>
+        <v>0.8665998489839808</v>
       </c>
       <c r="I7">
-        <v>0.4215555808188043</v>
+        <v>0.9539158639849887</v>
       </c>
       <c r="J7">
-        <v>0.07991102047273912</v>
+        <v>0.1815830754199297</v>
       </c>
       <c r="K7">
-        <v>2.369190345808875</v>
+        <v>1.04590153123948</v>
       </c>
       <c r="L7">
-        <v>0.09661747796035769</v>
+        <v>0.213726786682102</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9972949515426848</v>
+        <v>1.229022633155608</v>
       </c>
       <c r="O7">
-        <v>1.377824906983648</v>
+        <v>3.287850943417951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1694660478373038</v>
+        <v>0.2311038044655618</v>
       </c>
       <c r="D8">
-        <v>0.1433180566310455</v>
+        <v>0.1925446879597388</v>
       </c>
       <c r="E8">
-        <v>0.09314214545623756</v>
+        <v>0.1633312561705615</v>
       </c>
       <c r="F8">
-        <v>0.6456562069778613</v>
+        <v>1.37300115489375</v>
       </c>
       <c r="G8">
-        <v>0.3815434234776376</v>
+        <v>0.7665990108612064</v>
       </c>
       <c r="H8">
-        <v>0.3184146248385673</v>
+        <v>0.8591421351379296</v>
       </c>
       <c r="I8">
-        <v>0.4432842827153394</v>
+        <v>0.9495457265831178</v>
       </c>
       <c r="J8">
-        <v>0.08548307836351654</v>
+        <v>0.1816763076152981</v>
       </c>
       <c r="K8">
-        <v>2.861567083215874</v>
+        <v>1.198539307054062</v>
       </c>
       <c r="L8">
-        <v>0.1043294162493353</v>
+        <v>0.2143140261324348</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.028992540939697</v>
+        <v>1.235571516979832</v>
       </c>
       <c r="O8">
-        <v>1.423824239347056</v>
+        <v>3.263071912015192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2114264842422529</v>
+        <v>0.2403475519714107</v>
       </c>
       <c r="D9">
-        <v>0.1796819503673674</v>
+        <v>0.2010259776695307</v>
       </c>
       <c r="E9">
-        <v>0.111417548919583</v>
+        <v>0.1664444058852439</v>
       </c>
       <c r="F9">
-        <v>0.7205681271500026</v>
+        <v>1.367603191523571</v>
       </c>
       <c r="G9">
-        <v>0.4282007719047272</v>
+        <v>0.7615765805386303</v>
       </c>
       <c r="H9">
-        <v>0.3262225231401032</v>
+        <v>0.8473893396532617</v>
       </c>
       <c r="I9">
-        <v>0.4929695203130819</v>
+        <v>0.9448876290246133</v>
       </c>
       <c r="J9">
-        <v>0.09726469510771807</v>
+        <v>0.1824100802224748</v>
       </c>
       <c r="K9">
-        <v>3.82639586705892</v>
+        <v>1.497215412687808</v>
       </c>
       <c r="L9">
-        <v>0.1203401084520834</v>
+        <v>0.2160655281615931</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.097967945846634</v>
+        <v>1.251626451801201</v>
       </c>
       <c r="O9">
-        <v>1.539963961314299</v>
+        <v>3.228473706458146</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2429889725740964</v>
+        <v>0.2475396670640464</v>
       </c>
       <c r="D10">
-        <v>0.2069023355376771</v>
+        <v>0.2075511956291365</v>
       </c>
       <c r="E10">
-        <v>0.1253382189696062</v>
+        <v>0.1690135308426832</v>
       </c>
       <c r="F10">
-        <v>0.7826330510415431</v>
+        <v>1.367027551500229</v>
       </c>
       <c r="G10">
-        <v>0.467942197059827</v>
+        <v>0.7602096753743695</v>
       </c>
       <c r="H10">
-        <v>0.3351651057164418</v>
+        <v>0.8405018871650611</v>
       </c>
       <c r="I10">
-        <v>0.5344594322271021</v>
+        <v>0.9438484431157832</v>
       </c>
       <c r="J10">
-        <v>0.1065189541209577</v>
+        <v>0.1832833039261814</v>
       </c>
       <c r="K10">
-        <v>4.536118579256708</v>
+        <v>1.716150863001474</v>
       </c>
       <c r="L10">
-        <v>0.1327244345825491</v>
+        <v>0.2177155167091271</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.153296405895276</v>
+        <v>1.265358122103805</v>
       </c>
       <c r="O10">
-        <v>1.643536240217003</v>
+        <v>3.211589051451341</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2575363506283708</v>
+        <v>0.250897541046271</v>
       </c>
       <c r="D11">
-        <v>0.2194159348377127</v>
+        <v>0.2105825539028814</v>
       </c>
       <c r="E11">
-        <v>0.1317950334066822</v>
+        <v>0.1702429928478395</v>
       </c>
       <c r="F11">
-        <v>0.8126165143366677</v>
+        <v>1.367501252957069</v>
       </c>
       <c r="G11">
-        <v>0.4873950118208086</v>
+        <v>0.7600933979581157</v>
       </c>
       <c r="H11">
-        <v>0.3400132864372267</v>
+        <v>0.8377473388483736</v>
       </c>
       <c r="I11">
-        <v>0.5545753265619524</v>
+        <v>0.9438929098891649</v>
       </c>
       <c r="J11">
-        <v>0.1108771171906966</v>
+        <v>0.1837527540491948</v>
       </c>
       <c r="K11">
-        <v>4.859495904860808</v>
+        <v>1.81561971423929</v>
       </c>
       <c r="L11">
-        <v>0.138512255784967</v>
+        <v>0.2185444738616766</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.179595145410033</v>
+        <v>1.272020959701123</v>
       </c>
       <c r="O11">
-        <v>1.695188340551908</v>
+        <v>3.205762058807608</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2630748503521829</v>
+        <v>0.2521813631977921</v>
       </c>
       <c r="D12">
-        <v>0.2241751390694162</v>
+        <v>0.2117394119023004</v>
       </c>
       <c r="E12">
-        <v>0.1342593843292157</v>
+        <v>0.1707172437348241</v>
       </c>
       <c r="F12">
-        <v>0.8242417718230683</v>
+        <v>1.367786324069755</v>
       </c>
       <c r="G12">
-        <v>0.4949754987725044</v>
+        <v>0.760122134759996</v>
       </c>
       <c r="H12">
-        <v>0.3419687947309171</v>
+        <v>0.8367586469161807</v>
       </c>
       <c r="I12">
-        <v>0.5623852843607153</v>
+        <v>0.9439840787447125</v>
       </c>
       <c r="J12">
-        <v>0.1125503791149001</v>
+        <v>0.1839408728666498</v>
       </c>
       <c r="K12">
-        <v>4.982052719922194</v>
+        <v>1.853265586113082</v>
       </c>
       <c r="L12">
-        <v>0.1407277792066068</v>
+        <v>0.2188695973972727</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.189726646085063</v>
+        <v>1.274603446909268</v>
       </c>
       <c r="O12">
-        <v>1.715450786198431</v>
+        <v>3.203822162535545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2618806721204834</v>
+        <v>0.2519043253985984</v>
       </c>
       <c r="D13">
-        <v>0.2231492150267087</v>
+        <v>0.211489865624273</v>
       </c>
       <c r="E13">
-        <v>0.1337277603036426</v>
+        <v>0.1706147201545711</v>
       </c>
       <c r="F13">
-        <v>0.8217256796523316</v>
+        <v>1.367720229607215</v>
       </c>
       <c r="G13">
-        <v>0.4933331076426697</v>
+        <v>0.7601127082207029</v>
       </c>
       <c r="H13">
-        <v>0.3415421981831059</v>
+        <v>0.8369691608610452</v>
       </c>
       <c r="I13">
-        <v>0.5606944773967513</v>
+        <v>0.9439611387206739</v>
       </c>
       <c r="J13">
-        <v>0.1121889664547808</v>
+        <v>0.1838998984512941</v>
       </c>
       <c r="K13">
-        <v>4.955652995756736</v>
+        <v>1.845158843184322</v>
       </c>
       <c r="L13">
-        <v>0.1402495408050584</v>
+        <v>0.218799078274948</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.187536792168302</v>
+        <v>1.27404462648596</v>
       </c>
       <c r="O13">
-        <v>1.711054803876323</v>
+        <v>3.204228093104604</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2579913958367399</v>
+        <v>0.2510029166790417</v>
       </c>
       <c r="D14">
-        <v>0.2198070546153161</v>
+        <v>0.210677550605709</v>
       </c>
       <c r="E14">
-        <v>0.1319973817999021</v>
+        <v>0.1702818361084795</v>
       </c>
       <c r="F14">
-        <v>0.8135673802057113</v>
+        <v>1.36752258820627</v>
       </c>
       <c r="G14">
-        <v>0.4880142732591821</v>
+        <v>0.76009430334652</v>
       </c>
       <c r="H14">
-        <v>0.3401717259634438</v>
+        <v>0.8376649086531245</v>
       </c>
       <c r="I14">
-        <v>0.5552139155280074</v>
+        <v>0.9438989209605495</v>
       </c>
       <c r="J14">
-        <v>0.1110143086407902</v>
+        <v>0.1837680235116608</v>
       </c>
       <c r="K14">
-        <v>4.869576550492013</v>
+        <v>1.818717295586794</v>
       </c>
       <c r="L14">
-        <v>0.1386940414561124</v>
+        <v>0.2185709975051608</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.180425146673556</v>
+        <v>1.272232234196494</v>
       </c>
       <c r="O14">
-        <v>1.696840955535293</v>
+        <v>3.205597117742485</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2556130491036299</v>
+        <v>0.2504523719443199</v>
       </c>
       <c r="D15">
-        <v>0.217762618407221</v>
+        <v>0.2101811462412542</v>
       </c>
       <c r="E15">
-        <v>0.1309400319053857</v>
+        <v>0.1700790637871705</v>
       </c>
       <c r="F15">
-        <v>0.808606101970625</v>
+        <v>1.367415288722569</v>
       </c>
       <c r="G15">
-        <v>0.4847847274465948</v>
+        <v>0.7600925085961023</v>
       </c>
       <c r="H15">
-        <v>0.339348076949733</v>
+        <v>0.8380981568674883</v>
       </c>
       <c r="I15">
-        <v>0.5518824111148746</v>
+        <v>0.9438704895170673</v>
       </c>
       <c r="J15">
-        <v>0.1102978305658624</v>
+        <v>0.1836885928709577</v>
       </c>
       <c r="K15">
-        <v>4.816866181534579</v>
+        <v>1.802518292165018</v>
       </c>
       <c r="L15">
-        <v>0.1377444032368942</v>
+        <v>0.2184327504312762</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.176091871613622</v>
+        <v>1.271129816302491</v>
       </c>
       <c r="O15">
-        <v>1.688227659080184</v>
+        <v>3.206470413758268</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.242042287763141</v>
+        <v>0.2473219453514162</v>
       </c>
       <c r="D16">
-        <v>0.2060873236726053</v>
+        <v>0.207354347506481</v>
       </c>
       <c r="E16">
-        <v>0.1249188710455265</v>
+        <v>0.1689344003454316</v>
       </c>
       <c r="F16">
-        <v>0.7807104152762179</v>
+        <v>1.36701138838005</v>
       </c>
       <c r="G16">
-        <v>0.4666999511907051</v>
+        <v>0.7602274533153377</v>
       </c>
       <c r="H16">
-        <v>0.3348645882304311</v>
+        <v>0.8406895177075739</v>
       </c>
       <c r="I16">
-        <v>0.5331709718343376</v>
+        <v>0.9438559408594003</v>
       </c>
       <c r="J16">
-        <v>0.1062372565051817</v>
+        <v>0.1832540743234929</v>
       </c>
       <c r="K16">
-        <v>4.514997760396113</v>
+        <v>1.709647572963206</v>
       </c>
       <c r="L16">
-        <v>0.1323494258929259</v>
+        <v>0.2176629147855849</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.151601317110348</v>
+        <v>1.264931028018353</v>
       </c>
       <c r="O16">
-        <v>1.640256191178537</v>
+        <v>3.212007170604238</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2337673016108397</v>
+        <v>0.2454235088372627</v>
       </c>
       <c r="D17">
-        <v>0.1989596471598247</v>
+        <v>0.2056362555076277</v>
       </c>
       <c r="E17">
-        <v>0.1212578919003136</v>
+        <v>0.1682477071020401</v>
       </c>
       <c r="F17">
-        <v>0.7640590126749629</v>
+        <v>1.366951945581818</v>
       </c>
       <c r="G17">
-        <v>0.4559689291238413</v>
+        <v>0.7604397695672134</v>
       </c>
       <c r="H17">
-        <v>0.3323190642919229</v>
+        <v>0.8423761672801646</v>
       </c>
       <c r="I17">
-        <v>0.522019827207302</v>
+        <v>0.9439794526806509</v>
       </c>
       <c r="J17">
-        <v>0.1037853200027925</v>
+        <v>0.1830059817062875</v>
       </c>
       <c r="K17">
-        <v>4.329962456898443</v>
+        <v>1.65264019905112</v>
       </c>
       <c r="L17">
-        <v>0.1290803901483173</v>
+        <v>0.2172106793711848</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.136873587623469</v>
+        <v>1.261234565109319</v>
       </c>
       <c r="O17">
-        <v>1.612024154746308</v>
+        <v>3.215878674254782</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2290254218515031</v>
+        <v>0.2443396938528508</v>
       </c>
       <c r="D18">
-        <v>0.1948722063670942</v>
+        <v>0.2046539913167607</v>
       </c>
       <c r="E18">
-        <v>0.1191637957690723</v>
+        <v>0.1678584611329015</v>
       </c>
       <c r="F18">
-        <v>0.7546450265102465</v>
+        <v>1.366986995308096</v>
       </c>
       <c r="G18">
-        <v>0.4499250307007969</v>
+        <v>0.7606094672578649</v>
       </c>
       <c r="H18">
-        <v>0.3309279067860444</v>
+        <v>0.8433819206992155</v>
       </c>
       <c r="I18">
-        <v>0.5157219960975965</v>
+        <v>0.9440991770632223</v>
       </c>
       <c r="J18">
-        <v>0.1023888938305504</v>
+        <v>0.1828700849066962</v>
       </c>
       <c r="K18">
-        <v>4.223582395547851</v>
+        <v>1.619839368581893</v>
       </c>
       <c r="L18">
-        <v>0.1272145304240624</v>
+        <v>0.2169579452133519</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.128508248960316</v>
+        <v>1.259147660911736</v>
       </c>
       <c r="O18">
-        <v>1.596209625202363</v>
+        <v>3.2182799567112</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2274228652649839</v>
+        <v>0.2439741302018348</v>
       </c>
       <c r="D19">
-        <v>0.1934903147917169</v>
+        <v>0.2043224366026664</v>
       </c>
       <c r="E19">
-        <v>0.1184567213927075</v>
+        <v>0.1677276535728645</v>
       </c>
       <c r="F19">
-        <v>0.7514851111444756</v>
+        <v>1.36701075701793</v>
       </c>
       <c r="G19">
-        <v>0.447900220069414</v>
+        <v>0.7606750934688193</v>
       </c>
       <c r="H19">
-        <v>0.3304691972262219</v>
+        <v>0.8437285736178382</v>
       </c>
       <c r="I19">
-        <v>0.5136091739640491</v>
+        <v>0.9441480764203121</v>
       </c>
       <c r="J19">
-        <v>0.1019184221878504</v>
+        <v>0.1828252415163831</v>
       </c>
       <c r="K19">
-        <v>4.187571311937177</v>
+        <v>1.608731644655506</v>
       </c>
       <c r="L19">
-        <v>0.1265852079641476</v>
+        <v>0.2168736428828453</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.125693733120301</v>
+        <v>1.258447817716146</v>
       </c>
       <c r="O19">
-        <v>1.590926394465697</v>
+        <v>3.219122957446586</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2346463414192357</v>
+        <v>0.2456247615874787</v>
       </c>
       <c r="D20">
-        <v>0.1997171244666447</v>
+        <v>0.2058185356969489</v>
       </c>
       <c r="E20">
-        <v>0.1216463985203973</v>
+        <v>0.1683202149893397</v>
       </c>
       <c r="F20">
-        <v>0.7658145276846113</v>
+        <v>1.366951107918624</v>
       </c>
       <c r="G20">
-        <v>0.4570978696847305</v>
+        <v>0.7604122433570382</v>
       </c>
       <c r="H20">
-        <v>0.3325824362486145</v>
+        <v>0.8421929325620283</v>
       </c>
       <c r="I20">
-        <v>0.5231947807101278</v>
+        <v>0.9439612663641412</v>
       </c>
       <c r="J20">
-        <v>0.1040448869078077</v>
+        <v>0.1830316881287928</v>
       </c>
       <c r="K20">
-        <v>4.349654699141297</v>
+        <v>1.658709961526256</v>
       </c>
       <c r="L20">
-        <v>0.1294268823864186</v>
+        <v>0.2172580572235248</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.138430371391848</v>
+        <v>1.261624005677518</v>
       </c>
       <c r="O20">
-        <v>1.614985286281723</v>
+        <v>3.215448485905569</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2591329432866161</v>
+        <v>0.2512673502673977</v>
       </c>
       <c r="D21">
-        <v>0.2207881551823334</v>
+        <v>0.2109159052483278</v>
       </c>
       <c r="E21">
-        <v>0.1325051003681601</v>
+        <v>0.1703793770877695</v>
       </c>
       <c r="F21">
-        <v>0.8159561490569871</v>
+        <v>1.367577772524058</v>
       </c>
       <c r="G21">
-        <v>0.489570595637062</v>
+        <v>0.7600977338087489</v>
       </c>
       <c r="H21">
-        <v>0.3405709592516786</v>
+        <v>0.837459074733232</v>
       </c>
       <c r="I21">
-        <v>0.5568183495509231</v>
+        <v>0.9439151788622056</v>
       </c>
       <c r="J21">
-        <v>0.1113586989033521</v>
+        <v>0.1838064778195161</v>
       </c>
       <c r="K21">
-        <v>4.894856334697295</v>
+        <v>1.826484405746555</v>
       </c>
       <c r="L21">
-        <v>0.1391502697786606</v>
+        <v>0.2186376864015642</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.182509235754566</v>
+        <v>1.272762968694678</v>
       </c>
       <c r="O21">
-        <v>1.700996411389895</v>
+        <v>3.205187764432907</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.275310874569584</v>
+        <v>0.2550265609508529</v>
       </c>
       <c r="D22">
-        <v>0.2346801216744439</v>
+        <v>0.2142994374299718</v>
       </c>
       <c r="E22">
-        <v>0.1397150909244793</v>
+        <v>0.1717757280281305</v>
       </c>
       <c r="F22">
-        <v>0.8503171678114398</v>
+        <v>1.368603341175756</v>
       </c>
       <c r="G22">
-        <v>0.5120499357440877</v>
+        <v>0.7603163675457694</v>
       </c>
       <c r="H22">
-        <v>0.3464928769171394</v>
+        <v>0.8346822642586176</v>
       </c>
       <c r="I22">
-        <v>0.5799224693127414</v>
+        <v>0.9443182915925803</v>
       </c>
       <c r="J22">
-        <v>0.1162731067164984</v>
+        <v>0.1843731482924014</v>
       </c>
       <c r="K22">
-        <v>5.251778519821016</v>
+        <v>1.936012078227975</v>
       </c>
       <c r="L22">
-        <v>0.1456446355329319</v>
+        <v>0.2196047010685334</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.212329447422633</v>
+        <v>1.280389043453425</v>
       </c>
       <c r="O22">
-        <v>1.761332614662791</v>
+        <v>3.200036114609503</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2666595763870561</v>
+        <v>0.2530137009568989</v>
       </c>
       <c r="D23">
-        <v>0.2272540520942812</v>
+        <v>0.2124888516865298</v>
       </c>
       <c r="E23">
-        <v>0.1358561277377675</v>
+        <v>0.1710258606624819</v>
       </c>
       <c r="F23">
-        <v>0.8318257207337041</v>
+        <v>1.367999638661686</v>
       </c>
       <c r="G23">
-        <v>0.4999315811508609</v>
+        <v>0.760160841836111</v>
       </c>
       <c r="H23">
-        <v>0.3432655224831507</v>
+        <v>0.8361353059240741</v>
       </c>
       <c r="I23">
-        <v>0.5674832137887336</v>
+        <v>0.9440635159354969</v>
       </c>
       <c r="J23">
-        <v>0.1136373444592138</v>
+        <v>0.1840652000971801</v>
       </c>
       <c r="K23">
-        <v>5.061218259765553</v>
+        <v>1.877567210960081</v>
       </c>
       <c r="L23">
-        <v>0.1421651301003806</v>
+        <v>0.2190826256705165</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.196317646260326</v>
+        <v>1.27628733712757</v>
       </c>
       <c r="O23">
-        <v>1.728735235868385</v>
+        <v>3.202643404446178</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2342488793662341</v>
+        <v>0.2455337514715694</v>
       </c>
       <c r="D24">
-        <v>0.1993746368525109</v>
+        <v>0.2057361097160992</v>
       </c>
       <c r="E24">
-        <v>0.1214707216135871</v>
+        <v>0.1682874169034321</v>
       </c>
       <c r="F24">
-        <v>0.7650203651675014</v>
+        <v>1.366951270991805</v>
       </c>
       <c r="G24">
-        <v>0.4565870859608339</v>
+        <v>0.7604245395850597</v>
       </c>
       <c r="H24">
-        <v>0.3324631411502139</v>
+        <v>0.8422756605990287</v>
       </c>
       <c r="I24">
-        <v>0.522663232959772</v>
+        <v>0.9439693366485713</v>
       </c>
       <c r="J24">
-        <v>0.1039274956364977</v>
+        <v>0.18302004527402</v>
       </c>
       <c r="K24">
-        <v>4.34075184085026</v>
+        <v>1.655965904346431</v>
       </c>
       <c r="L24">
-        <v>0.1292701911552143</v>
+        <v>0.2172366150724585</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.137726233046919</v>
+        <v>1.261447820443223</v>
       </c>
       <c r="O24">
-        <v>1.613645265369911</v>
+        <v>3.215642427380914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1999555574453922</v>
+        <v>0.2377761339267721</v>
       </c>
       <c r="D25">
-        <v>0.1697627683799965</v>
+        <v>0.1986795840358724</v>
       </c>
       <c r="E25">
-        <v>0.1063922302830989</v>
+        <v>0.1655525307653072</v>
       </c>
       <c r="F25">
-        <v>0.6991401438884495</v>
+        <v>1.368467878553112</v>
       </c>
       <c r="G25">
-        <v>0.4146798484418213</v>
+        <v>0.762527680070832</v>
       </c>
       <c r="H25">
-        <v>0.3235742427968518</v>
+        <v>0.8502616905340403</v>
       </c>
       <c r="I25">
-        <v>0.4787037336534752</v>
+        <v>0.9457291516360868</v>
       </c>
       <c r="J25">
-        <v>0.0939782470005639</v>
+        <v>0.1821527738855053</v>
       </c>
       <c r="K25">
-        <v>3.565332814509816</v>
+        <v>1.416495974944667</v>
       </c>
       <c r="L25">
-        <v>0.1159057774636452</v>
+        <v>0.2155277401872056</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.078529174864158</v>
+        <v>1.246941575512679</v>
       </c>
       <c r="O25">
-        <v>1.505525716001557</v>
+        <v>3.236334940242813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_84/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2323342713546026</v>
+        <v>0.1751887872488425</v>
       </c>
       <c r="D2">
-        <v>0.1936821668427342</v>
+        <v>0.1482912739364934</v>
       </c>
       <c r="E2">
-        <v>0.1637286036555636</v>
+        <v>0.09561584952502145</v>
       </c>
       <c r="F2">
-        <v>1.371863024247688</v>
+        <v>0.6552702938510251</v>
       </c>
       <c r="G2">
-        <v>0.7656368203074919</v>
+        <v>0.3874224831231459</v>
       </c>
       <c r="H2">
-        <v>0.8573159392711887</v>
+        <v>0.3191513412955373</v>
       </c>
       <c r="I2">
-        <v>0.9486264204944845</v>
+        <v>0.4496268385497046</v>
       </c>
       <c r="J2">
-        <v>0.1817389190539274</v>
+        <v>0.08704796953325911</v>
       </c>
       <c r="K2">
-        <v>1.239856818260819</v>
+        <v>2.994882902799418</v>
       </c>
       <c r="L2">
-        <v>0.2145138343572981</v>
+        <v>0.1064762217584274</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.237564196572151</v>
+        <v>1.038024991787793</v>
       </c>
       <c r="O2">
-        <v>3.257304884545078</v>
+        <v>1.437957377831395</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2288162730677783</v>
+        <v>0.1586642406495713</v>
       </c>
       <c r="D3">
-        <v>0.1904205364025984</v>
+        <v>0.1339172500662187</v>
       </c>
       <c r="E3">
-        <v>0.1626116673094309</v>
+        <v>0.08849234217793978</v>
       </c>
       <c r="F3">
-        <v>1.375586268995065</v>
+        <v>0.6281193085389916</v>
       </c>
       <c r="G3">
-        <v>0.7687157380360929</v>
+        <v>0.3709317682495836</v>
       </c>
       <c r="H3">
-        <v>0.8628302847912366</v>
+        <v>0.3173601170688727</v>
       </c>
       <c r="I3">
-        <v>0.9515894264282423</v>
+        <v>0.4317511802681437</v>
       </c>
       <c r="J3">
-        <v>0.1815991764158227</v>
+        <v>0.08257226563621245</v>
       </c>
       <c r="K3">
-        <v>1.119980459949659</v>
+        <v>2.608148147423236</v>
       </c>
       <c r="L3">
-        <v>0.2139799278543535</v>
+        <v>0.1003152416541013</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.232029302888833</v>
+        <v>1.012333032941712</v>
       </c>
       <c r="O3">
-        <v>3.275092097228779</v>
+        <v>1.398872103310893</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2267406629446072</v>
+        <v>0.1486338684130857</v>
       </c>
       <c r="D4">
-        <v>0.1884801879155162</v>
+        <v>0.1251701697052567</v>
       </c>
       <c r="E4">
-        <v>0.1619849363818346</v>
+        <v>0.08419997214234698</v>
       </c>
       <c r="F4">
-        <v>1.378574404789475</v>
+        <v>0.6126245081850143</v>
       </c>
       <c r="G4">
-        <v>0.7710850826054596</v>
+        <v>0.361702637779004</v>
       </c>
       <c r="H4">
-        <v>0.866578389902088</v>
+        <v>0.3168189502116476</v>
       </c>
       <c r="I4">
-        <v>0.9539019835516811</v>
+        <v>0.4216094173635696</v>
       </c>
       <c r="J4">
-        <v>0.1815829987920772</v>
+        <v>0.07992533621707665</v>
       </c>
       <c r="K4">
-        <v>1.046306572079743</v>
+        <v>2.37049701921643</v>
       </c>
       <c r="L4">
-        <v>0.2137279907519272</v>
+        <v>0.0966374501131142</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.229038101946102</v>
+        <v>0.9973752729033265</v>
       </c>
       <c r="O4">
-        <v>3.287777044213598</v>
+        <v>1.377933008825323</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2259161870615003</v>
+        <v>0.1445738295618924</v>
       </c>
       <c r="D5">
-        <v>0.1877052544943609</v>
+        <v>0.1216242532878624</v>
       </c>
       <c r="E5">
-        <v>0.1617444482589399</v>
+        <v>0.08247031086279932</v>
       </c>
       <c r="F5">
-        <v>1.379968744233828</v>
+        <v>0.6065924233992561</v>
       </c>
       <c r="G5">
-        <v>0.7721709803561723</v>
+        <v>0.3581556131711352</v>
       </c>
       <c r="H5">
-        <v>0.8681969366675162</v>
+        <v>0.316733775640877</v>
       </c>
       <c r="I5">
-        <v>0.9549684688646352</v>
+        <v>0.4176766313925242</v>
       </c>
       <c r="J5">
-        <v>0.1815939521987922</v>
+        <v>0.07887104566884062</v>
       </c>
       <c r="K5">
-        <v>1.01626894808922</v>
+        <v>2.273587492012581</v>
       </c>
       <c r="L5">
-        <v>0.2136444608577079</v>
+        <v>0.09516402421728287</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.227922038103159</v>
+        <v>0.9914785090803946</v>
       </c>
       <c r="O5">
-        <v>3.293389749473732</v>
+        <v>1.370134473882359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2257805764718768</v>
+        <v>0.1439012714032657</v>
       </c>
       <c r="D6">
-        <v>0.1875775332706553</v>
+        <v>0.1210365459621983</v>
       </c>
       <c r="E6">
-        <v>0.1617054175399275</v>
+        <v>0.08218425285165054</v>
       </c>
       <c r="F6">
-        <v>1.380210945809637</v>
+        <v>0.6056074578946564</v>
       </c>
       <c r="G6">
-        <v>0.7723585615662216</v>
+        <v>0.3575792274753624</v>
       </c>
       <c r="H6">
-        <v>0.8684712031382773</v>
+        <v>0.3167276620562376</v>
       </c>
       <c r="I6">
-        <v>0.9551530551692977</v>
+        <v>0.4170354047036611</v>
       </c>
       <c r="J6">
-        <v>0.1815968318573233</v>
+        <v>0.0786974217033638</v>
       </c>
       <c r="K6">
-        <v>1.011280396653831</v>
+        <v>2.257491385879803</v>
       </c>
       <c r="L6">
-        <v>0.2136317481979972</v>
+        <v>0.09492085958398633</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.227742943858942</v>
+        <v>0.990511160815899</v>
       </c>
       <c r="O6">
-        <v>3.294348521389097</v>
+        <v>1.368882889319309</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2267294571676928</v>
+        <v>0.1485790044644233</v>
       </c>
       <c r="D7">
-        <v>0.1884696728800463</v>
+        <v>0.125122274484653</v>
       </c>
       <c r="E7">
-        <v>0.1619816326315799</v>
+        <v>0.0841765675705517</v>
       </c>
       <c r="F7">
-        <v>1.37859249393945</v>
+        <v>0.6125420323479389</v>
       </c>
       <c r="G7">
-        <v>0.7710992400889154</v>
+        <v>0.3616539499706803</v>
       </c>
       <c r="H7">
-        <v>0.8665998489839808</v>
+        <v>0.3168172600739965</v>
       </c>
       <c r="I7">
-        <v>0.9539158639849887</v>
+        <v>0.4215555808187759</v>
       </c>
       <c r="J7">
-        <v>0.1815830754199297</v>
+        <v>0.07991102047279242</v>
       </c>
       <c r="K7">
-        <v>1.04590153123948</v>
+        <v>2.369190345809074</v>
       </c>
       <c r="L7">
-        <v>0.213726786682102</v>
+        <v>0.09661747796037901</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.229022633155608</v>
+        <v>0.9972949515426706</v>
       </c>
       <c r="O7">
-        <v>3.287850943417951</v>
+        <v>1.377824906983705</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2311038044655618</v>
+        <v>0.169466047836849</v>
       </c>
       <c r="D8">
-        <v>0.1925446879597388</v>
+        <v>0.1433180566311165</v>
       </c>
       <c r="E8">
-        <v>0.1633312561705615</v>
+        <v>0.09314214545623756</v>
       </c>
       <c r="F8">
-        <v>1.37300115489375</v>
+        <v>0.64565620697784</v>
       </c>
       <c r="G8">
-        <v>0.7665990108612064</v>
+        <v>0.3815434234776376</v>
       </c>
       <c r="H8">
-        <v>0.8591421351379296</v>
+        <v>0.3184146248385673</v>
       </c>
       <c r="I8">
-        <v>0.9495457265831178</v>
+        <v>0.4432842827153394</v>
       </c>
       <c r="J8">
-        <v>0.1816763076152981</v>
+        <v>0.08548307836351654</v>
       </c>
       <c r="K8">
-        <v>1.198539307054062</v>
+        <v>2.861567083215874</v>
       </c>
       <c r="L8">
-        <v>0.2143140261324348</v>
+        <v>0.1043294162492785</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.235571516979832</v>
+        <v>1.028992540939697</v>
       </c>
       <c r="O8">
-        <v>3.263071912015192</v>
+        <v>1.423824239347056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2403475519714107</v>
+        <v>0.2114264842427218</v>
       </c>
       <c r="D9">
-        <v>0.2010259776695307</v>
+        <v>0.1796819503671685</v>
       </c>
       <c r="E9">
-        <v>0.1664444058852439</v>
+        <v>0.1114175489195652</v>
       </c>
       <c r="F9">
-        <v>1.367603191523571</v>
+        <v>0.7205681271500097</v>
       </c>
       <c r="G9">
-        <v>0.7615765805386303</v>
+        <v>0.4282007719047698</v>
       </c>
       <c r="H9">
-        <v>0.8473893396532617</v>
+        <v>0.3262225231402169</v>
       </c>
       <c r="I9">
-        <v>0.9448876290246133</v>
+        <v>0.4929695203130535</v>
       </c>
       <c r="J9">
-        <v>0.1824100802224748</v>
+        <v>0.09726469510772517</v>
       </c>
       <c r="K9">
-        <v>1.497215412687808</v>
+        <v>3.82639586705892</v>
       </c>
       <c r="L9">
-        <v>0.2160655281615931</v>
+        <v>0.1203401084521616</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.251626451801201</v>
+        <v>1.097967945846634</v>
       </c>
       <c r="O9">
-        <v>3.228473706458146</v>
+        <v>1.539963961314271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2475396670640464</v>
+        <v>0.24298897257394</v>
       </c>
       <c r="D10">
-        <v>0.2075511956291365</v>
+        <v>0.2069023355376913</v>
       </c>
       <c r="E10">
-        <v>0.1690135308426832</v>
+        <v>0.1253382189696062</v>
       </c>
       <c r="F10">
-        <v>1.367027551500229</v>
+        <v>0.7826330510415431</v>
       </c>
       <c r="G10">
-        <v>0.7602096753743695</v>
+        <v>0.4679421970597843</v>
       </c>
       <c r="H10">
-        <v>0.8405018871650611</v>
+        <v>0.3351651057164418</v>
       </c>
       <c r="I10">
-        <v>0.9438484431157832</v>
+        <v>0.5344594322271021</v>
       </c>
       <c r="J10">
-        <v>0.1832833039261814</v>
+        <v>0.1065189541210358</v>
       </c>
       <c r="K10">
-        <v>1.716150863001474</v>
+        <v>4.536118579256708</v>
       </c>
       <c r="L10">
-        <v>0.2177155167091271</v>
+        <v>0.1327244345825136</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.265358122103805</v>
+        <v>1.15329640589529</v>
       </c>
       <c r="O10">
-        <v>3.211589051451341</v>
+        <v>1.643536240217003</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.250897541046271</v>
+        <v>0.2575363506283708</v>
       </c>
       <c r="D11">
-        <v>0.2105825539028814</v>
+        <v>0.2194159348376701</v>
       </c>
       <c r="E11">
-        <v>0.1702429928478395</v>
+        <v>0.1317950334066964</v>
       </c>
       <c r="F11">
-        <v>1.367501252957069</v>
+        <v>0.8126165143366677</v>
       </c>
       <c r="G11">
-        <v>0.7600933979581157</v>
+        <v>0.4873950118207802</v>
       </c>
       <c r="H11">
-        <v>0.8377473388483736</v>
+        <v>0.340013286437113</v>
       </c>
       <c r="I11">
-        <v>0.9438929098891649</v>
+        <v>0.5545753265619524</v>
       </c>
       <c r="J11">
-        <v>0.1837527540491948</v>
+        <v>0.1108771171906611</v>
       </c>
       <c r="K11">
-        <v>1.81561971423929</v>
+        <v>4.859495904860808</v>
       </c>
       <c r="L11">
-        <v>0.2185444738616766</v>
+        <v>0.1385122557849954</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.272020959701123</v>
+        <v>1.179595145410019</v>
       </c>
       <c r="O11">
-        <v>3.205762058807608</v>
+        <v>1.695188340551937</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2521813631977921</v>
+        <v>0.2630748503521829</v>
       </c>
       <c r="D12">
-        <v>0.2117394119023004</v>
+        <v>0.2241751390692883</v>
       </c>
       <c r="E12">
-        <v>0.1707172437348241</v>
+        <v>0.1342593843292157</v>
       </c>
       <c r="F12">
-        <v>1.367786324069755</v>
+        <v>0.8242417718230683</v>
       </c>
       <c r="G12">
-        <v>0.760122134759996</v>
+        <v>0.4949754987724475</v>
       </c>
       <c r="H12">
-        <v>0.8367586469161807</v>
+        <v>0.3419687947307892</v>
       </c>
       <c r="I12">
-        <v>0.9439840787447125</v>
+        <v>0.5623852843607082</v>
       </c>
       <c r="J12">
-        <v>0.1839408728666498</v>
+        <v>0.112550379114893</v>
       </c>
       <c r="K12">
-        <v>1.853265586113082</v>
+        <v>4.982052719922081</v>
       </c>
       <c r="L12">
-        <v>0.2188695973972727</v>
+        <v>0.1407277792065429</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.274603446909268</v>
+        <v>1.189726646084992</v>
       </c>
       <c r="O12">
-        <v>3.203822162535545</v>
+        <v>1.715450786198375</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2519043253985984</v>
+        <v>0.2618806721206113</v>
       </c>
       <c r="D13">
-        <v>0.211489865624273</v>
+        <v>0.2231492150268366</v>
       </c>
       <c r="E13">
-        <v>0.1706147201545711</v>
+        <v>0.1337277603036284</v>
       </c>
       <c r="F13">
-        <v>1.367720229607215</v>
+        <v>0.8217256796523316</v>
       </c>
       <c r="G13">
-        <v>0.7601127082207029</v>
+        <v>0.4933331076426128</v>
       </c>
       <c r="H13">
-        <v>0.8369691608610452</v>
+        <v>0.3415421981831059</v>
       </c>
       <c r="I13">
-        <v>0.9439611387206739</v>
+        <v>0.5606944773967513</v>
       </c>
       <c r="J13">
-        <v>0.1838998984512941</v>
+        <v>0.1121889664548164</v>
       </c>
       <c r="K13">
-        <v>1.845158843184322</v>
+        <v>4.955652995756964</v>
       </c>
       <c r="L13">
-        <v>0.218799078274948</v>
+        <v>0.1402495408049731</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.27404462648596</v>
+        <v>1.187536792168231</v>
       </c>
       <c r="O13">
-        <v>3.204228093104604</v>
+        <v>1.71105480387638</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2510029166790417</v>
+        <v>0.2579913958369673</v>
       </c>
       <c r="D14">
-        <v>0.210677550605709</v>
+        <v>0.2198070546152593</v>
       </c>
       <c r="E14">
-        <v>0.1702818361084795</v>
+        <v>0.1319973817999056</v>
       </c>
       <c r="F14">
-        <v>1.36752258820627</v>
+        <v>0.8135673802057113</v>
       </c>
       <c r="G14">
-        <v>0.76009430334652</v>
+        <v>0.4880142732591537</v>
       </c>
       <c r="H14">
-        <v>0.8376649086531245</v>
+        <v>0.3401717259635575</v>
       </c>
       <c r="I14">
-        <v>0.9438989209605495</v>
+        <v>0.555213915527986</v>
       </c>
       <c r="J14">
-        <v>0.1837680235116608</v>
+        <v>0.1110143086407902</v>
       </c>
       <c r="K14">
-        <v>1.818717295586794</v>
+        <v>4.869576550492013</v>
       </c>
       <c r="L14">
-        <v>0.2185709975051608</v>
+        <v>0.1386940414560911</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.272232234196494</v>
+        <v>1.180425146673556</v>
       </c>
       <c r="O14">
-        <v>3.205597117742485</v>
+        <v>1.696840955535322</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2504523719443199</v>
+        <v>0.2556130491038573</v>
       </c>
       <c r="D15">
-        <v>0.2101811462412542</v>
+        <v>0.2177626184073205</v>
       </c>
       <c r="E15">
-        <v>0.1700790637871705</v>
+        <v>0.1309400319053928</v>
       </c>
       <c r="F15">
-        <v>1.367415288722569</v>
+        <v>0.808606101970625</v>
       </c>
       <c r="G15">
-        <v>0.7600925085961023</v>
+        <v>0.4847847274467227</v>
       </c>
       <c r="H15">
-        <v>0.8380981568674883</v>
+        <v>0.339348076949733</v>
       </c>
       <c r="I15">
-        <v>0.9438704895170673</v>
+        <v>0.5518824111148746</v>
       </c>
       <c r="J15">
-        <v>0.1836885928709577</v>
+        <v>0.11029783056577</v>
       </c>
       <c r="K15">
-        <v>1.802518292165018</v>
+        <v>4.816866181534692</v>
       </c>
       <c r="L15">
-        <v>0.2184327504312762</v>
+        <v>0.1377444032369866</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.271129816302491</v>
+        <v>1.176091871613565</v>
       </c>
       <c r="O15">
-        <v>3.206470413758268</v>
+        <v>1.688227659080184</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2473219453514162</v>
+        <v>0.2420422877631552</v>
       </c>
       <c r="D16">
-        <v>0.207354347506481</v>
+        <v>0.2060873236724774</v>
       </c>
       <c r="E16">
-        <v>0.1689344003454316</v>
+        <v>0.12491887104553</v>
       </c>
       <c r="F16">
-        <v>1.36701138838005</v>
+        <v>0.7807104152762179</v>
       </c>
       <c r="G16">
-        <v>0.7602274533153377</v>
+        <v>0.4666999511907903</v>
       </c>
       <c r="H16">
-        <v>0.8406895177075739</v>
+        <v>0.3348645882304453</v>
       </c>
       <c r="I16">
-        <v>0.9438559408594003</v>
+        <v>0.5331709718343447</v>
       </c>
       <c r="J16">
-        <v>0.1832540743234929</v>
+        <v>0.1062372565052172</v>
       </c>
       <c r="K16">
-        <v>1.709647572963206</v>
+        <v>4.514997760396113</v>
       </c>
       <c r="L16">
-        <v>0.2176629147855849</v>
+        <v>0.132349425892869</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.264931028018353</v>
+        <v>1.151601317110334</v>
       </c>
       <c r="O16">
-        <v>3.212007170604238</v>
+        <v>1.640256191178565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2454235088372627</v>
+        <v>0.233767301610726</v>
       </c>
       <c r="D17">
-        <v>0.2056362555076277</v>
+        <v>0.1989596471597821</v>
       </c>
       <c r="E17">
-        <v>0.1682477071020401</v>
+        <v>0.1212578919003278</v>
       </c>
       <c r="F17">
-        <v>1.366951945581818</v>
+        <v>0.7640590126749771</v>
       </c>
       <c r="G17">
-        <v>0.7604397695672134</v>
+        <v>0.455968929123884</v>
       </c>
       <c r="H17">
-        <v>0.8423761672801646</v>
+        <v>0.3323190642919229</v>
       </c>
       <c r="I17">
-        <v>0.9439794526806509</v>
+        <v>0.522019827207302</v>
       </c>
       <c r="J17">
-        <v>0.1830059817062875</v>
+        <v>0.1037853200028422</v>
       </c>
       <c r="K17">
-        <v>1.65264019905112</v>
+        <v>4.3299624568985</v>
       </c>
       <c r="L17">
-        <v>0.2172106793711848</v>
+        <v>0.1290803901483386</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.261234565109319</v>
+        <v>1.136873587623413</v>
       </c>
       <c r="O17">
-        <v>3.215878674254782</v>
+        <v>1.612024154746337</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2443396938528508</v>
+        <v>0.229025421851162</v>
       </c>
       <c r="D18">
-        <v>0.2046539913167607</v>
+        <v>0.1948722063670516</v>
       </c>
       <c r="E18">
-        <v>0.1678584611329015</v>
+        <v>0.1191637957690368</v>
       </c>
       <c r="F18">
-        <v>1.366986995308096</v>
+        <v>0.7546450265102607</v>
       </c>
       <c r="G18">
-        <v>0.7606094672578649</v>
+        <v>0.4499250307007969</v>
       </c>
       <c r="H18">
-        <v>0.8433819206992155</v>
+        <v>0.3309279067860444</v>
       </c>
       <c r="I18">
-        <v>0.9440991770632223</v>
+        <v>0.5157219960976107</v>
       </c>
       <c r="J18">
-        <v>0.1828700849066962</v>
+        <v>0.1023888938306996</v>
       </c>
       <c r="K18">
-        <v>1.619839368581893</v>
+        <v>4.223582395547908</v>
       </c>
       <c r="L18">
-        <v>0.2169579452133519</v>
+        <v>0.1272145304240198</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.259147660911736</v>
+        <v>1.128508248960301</v>
       </c>
       <c r="O18">
-        <v>3.2182799567112</v>
+        <v>1.59620962520242</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2439741302018348</v>
+        <v>0.2274228652650976</v>
       </c>
       <c r="D19">
-        <v>0.2043224366026664</v>
+        <v>0.193490314791589</v>
       </c>
       <c r="E19">
-        <v>0.1677276535728645</v>
+        <v>0.1184567213927075</v>
       </c>
       <c r="F19">
-        <v>1.36701075701793</v>
+        <v>0.7514851111444756</v>
       </c>
       <c r="G19">
-        <v>0.7606750934688193</v>
+        <v>0.4479002200694566</v>
       </c>
       <c r="H19">
-        <v>0.8437285736178382</v>
+        <v>0.3304691972262219</v>
       </c>
       <c r="I19">
-        <v>0.9441480764203121</v>
+        <v>0.513609173964042</v>
       </c>
       <c r="J19">
-        <v>0.1828252415163831</v>
+        <v>0.1019184221878788</v>
       </c>
       <c r="K19">
-        <v>1.608731644655506</v>
+        <v>4.18757131193712</v>
       </c>
       <c r="L19">
-        <v>0.2168736428828453</v>
+        <v>0.126585207964176</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.258447817716146</v>
+        <v>1.125693733120244</v>
       </c>
       <c r="O19">
-        <v>3.219122957446586</v>
+        <v>1.590926394465697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2456247615874787</v>
+        <v>0.2346463414191504</v>
       </c>
       <c r="D20">
-        <v>0.2058185356969489</v>
+        <v>0.1997171244665452</v>
       </c>
       <c r="E20">
-        <v>0.1683202149893397</v>
+        <v>0.1216463985203795</v>
       </c>
       <c r="F20">
-        <v>1.366951107918624</v>
+        <v>0.7658145276846255</v>
       </c>
       <c r="G20">
-        <v>0.7604122433570382</v>
+        <v>0.4570978696847448</v>
       </c>
       <c r="H20">
-        <v>0.8421929325620283</v>
+        <v>0.3325824362486145</v>
       </c>
       <c r="I20">
-        <v>0.9439612663641412</v>
+        <v>0.5231947807101278</v>
       </c>
       <c r="J20">
-        <v>0.1830316881287928</v>
+        <v>0.1040448869077437</v>
       </c>
       <c r="K20">
-        <v>1.658709961526256</v>
+        <v>4.34965469914124</v>
       </c>
       <c r="L20">
-        <v>0.2172580572235248</v>
+        <v>0.1294268823863689</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.261624005677518</v>
+        <v>1.138430371391848</v>
       </c>
       <c r="O20">
-        <v>3.215448485905569</v>
+        <v>1.614985286281666</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2512673502673977</v>
+        <v>0.2591329432862608</v>
       </c>
       <c r="D21">
-        <v>0.2109159052483278</v>
+        <v>0.2207881551823334</v>
       </c>
       <c r="E21">
-        <v>0.1703793770877695</v>
+        <v>0.1325051003681743</v>
       </c>
       <c r="F21">
-        <v>1.367577772524058</v>
+        <v>0.8159561490569871</v>
       </c>
       <c r="G21">
-        <v>0.7600977338087489</v>
+        <v>0.4895705956370051</v>
       </c>
       <c r="H21">
-        <v>0.837459074733232</v>
+        <v>0.3405709592516786</v>
       </c>
       <c r="I21">
-        <v>0.9439151788622056</v>
+        <v>0.5568183495509018</v>
       </c>
       <c r="J21">
-        <v>0.1838064778195161</v>
+        <v>0.1113586989034019</v>
       </c>
       <c r="K21">
-        <v>1.826484405746555</v>
+        <v>4.894856334697238</v>
       </c>
       <c r="L21">
-        <v>0.2186376864015642</v>
+        <v>0.1391502697786393</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.272762968694678</v>
+        <v>1.18250923575458</v>
       </c>
       <c r="O21">
-        <v>3.205187764432907</v>
+        <v>1.700996411389781</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2550265609508529</v>
+        <v>0.2753108745696693</v>
       </c>
       <c r="D22">
-        <v>0.2142994374299718</v>
+        <v>0.234680121674316</v>
       </c>
       <c r="E22">
-        <v>0.1717757280281305</v>
+        <v>0.1397150909244935</v>
       </c>
       <c r="F22">
-        <v>1.368603341175756</v>
+        <v>0.8503171678114398</v>
       </c>
       <c r="G22">
-        <v>0.7603163675457694</v>
+        <v>0.5120499357440735</v>
       </c>
       <c r="H22">
-        <v>0.8346822642586176</v>
+        <v>0.3464928769171394</v>
       </c>
       <c r="I22">
-        <v>0.9443182915925803</v>
+        <v>0.5799224693127272</v>
       </c>
       <c r="J22">
-        <v>0.1843731482924014</v>
+        <v>0.1162731067165268</v>
       </c>
       <c r="K22">
-        <v>1.936012078227975</v>
+        <v>5.251778519820959</v>
       </c>
       <c r="L22">
-        <v>0.2196047010685334</v>
+        <v>0.1456446355328609</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.280389043453425</v>
+        <v>1.212329447422619</v>
       </c>
       <c r="O22">
-        <v>3.200036114609503</v>
+        <v>1.76133261466282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2530137009568989</v>
+        <v>0.266659576386715</v>
       </c>
       <c r="D23">
-        <v>0.2124888516865298</v>
+        <v>0.2272540520942954</v>
       </c>
       <c r="E23">
-        <v>0.1710258606624819</v>
+        <v>0.1358561277377639</v>
       </c>
       <c r="F23">
-        <v>1.367999638661686</v>
+        <v>0.8318257207337041</v>
       </c>
       <c r="G23">
-        <v>0.760160841836111</v>
+        <v>0.4999315811508893</v>
       </c>
       <c r="H23">
-        <v>0.8361353059240741</v>
+        <v>0.3432655224831507</v>
       </c>
       <c r="I23">
-        <v>0.9440635159354969</v>
+        <v>0.5674832137887336</v>
       </c>
       <c r="J23">
-        <v>0.1840652000971801</v>
+        <v>0.1136373444592138</v>
       </c>
       <c r="K23">
-        <v>1.877567210960081</v>
+        <v>5.061218259765496</v>
       </c>
       <c r="L23">
-        <v>0.2190826256705165</v>
+        <v>0.1421651301004943</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.27628733712757</v>
+        <v>1.196317646260255</v>
       </c>
       <c r="O23">
-        <v>3.202643404446178</v>
+        <v>1.728735235868385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2455337514715694</v>
+        <v>0.234248879365893</v>
       </c>
       <c r="D24">
-        <v>0.2057361097160992</v>
+        <v>0.1993746368524398</v>
       </c>
       <c r="E24">
-        <v>0.1682874169034321</v>
+        <v>0.1214707216135871</v>
       </c>
       <c r="F24">
-        <v>1.366951270991805</v>
+        <v>0.7650203651675156</v>
       </c>
       <c r="G24">
-        <v>0.7604245395850597</v>
+        <v>0.4565870859609049</v>
       </c>
       <c r="H24">
-        <v>0.8422756605990287</v>
+        <v>0.3324631411503276</v>
       </c>
       <c r="I24">
-        <v>0.9439693366485713</v>
+        <v>0.5226632329597791</v>
       </c>
       <c r="J24">
-        <v>0.18302004527402</v>
+        <v>0.1039274956365048</v>
       </c>
       <c r="K24">
-        <v>1.655965904346431</v>
+        <v>4.34075184085026</v>
       </c>
       <c r="L24">
-        <v>0.2172366150724585</v>
+        <v>0.129270191155257</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.261447820443223</v>
+        <v>1.137726233046934</v>
       </c>
       <c r="O24">
-        <v>3.215642427380914</v>
+        <v>1.613645265369911</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2377761339267721</v>
+        <v>0.1999555574455201</v>
       </c>
       <c r="D25">
-        <v>0.1986795840358724</v>
+        <v>0.1697627683799681</v>
       </c>
       <c r="E25">
-        <v>0.1655525307653072</v>
+        <v>0.1063922302831024</v>
       </c>
       <c r="F25">
-        <v>1.368467878553112</v>
+        <v>0.6991401438884495</v>
       </c>
       <c r="G25">
-        <v>0.762527680070832</v>
+        <v>0.4146798484417502</v>
       </c>
       <c r="H25">
-        <v>0.8502616905340403</v>
+        <v>0.3235742427968518</v>
       </c>
       <c r="I25">
-        <v>0.9457291516360868</v>
+        <v>0.4787037336534681</v>
       </c>
       <c r="J25">
-        <v>0.1821527738855053</v>
+        <v>0.09397824700062785</v>
       </c>
       <c r="K25">
-        <v>1.416495974944667</v>
+        <v>3.565332814509759</v>
       </c>
       <c r="L25">
-        <v>0.2155277401872056</v>
+        <v>0.115905777463702</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.246941575512679</v>
+        <v>1.078529174864158</v>
       </c>
       <c r="O25">
-        <v>3.236334940242813</v>
+        <v>1.505525716001557</v>
       </c>
     </row>
   </sheetData>
